--- a/tests/dust_data/old_formats/dust_table_65.3_sfsc-mod.xlsx
+++ b/tests/dust_data/old_formats/dust_table_65.3_sfsc-mod.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t xml:space="preserve">Human Hair   Natural </t>
   </si>
@@ -311,19 +311,28 @@
     <t>Banded</t>
   </si>
   <si>
-    <t>Dyed BlueDyed GreenDyed Red</t>
+    <t>Dyed Blue</t>
   </si>
   <si>
     <t>Magenta</t>
   </si>
   <si>
+    <t>Dyed Green</t>
+  </si>
+  <si>
     <t>Aqua</t>
   </si>
   <si>
+    <t>Dyed Red</t>
+  </si>
+  <si>
     <t>Natural</t>
   </si>
   <si>
     <t>Dyed Aqua</t>
+  </si>
+  <si>
+    <t>Wine</t>
   </si>
 </sst>
 </file>
@@ -880,10 +889,14 @@
       <c r="M21" t="s">
         <v>99</v>
       </c>
-      <c r="N21"/>
-      <c r="O21"/>
+      <c r="N21" t="s">
+        <v>101</v>
+      </c>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
       <c r="P21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -1047,12 +1060,14 @@
         <v>100</v>
       </c>
       <c r="N28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O28" t="s">
-        <v>102</v>
-      </c>
-      <c r="P28"/>
+        <v>104</v>
+      </c>
+      <c r="P28" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
